--- a/ALS_data/Log 2016-03-29T22-16-11.386/plots/threadLogger.xlsx
+++ b/ALS_data/Log 2016-03-29T22-16-11.386/plots/threadLogger.xlsx
@@ -22,22 +22,22 @@
     <t>thread name</t>
   </si>
   <si>
-    <t xml:space="preserve"> total move</t>
+    <t>total move</t>
   </si>
   <si>
     <t>alive_time</t>
   </si>
   <si>
-    <t xml:space="preserve">total food count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total poison count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total children count</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dna</t>
+    <t>total food count</t>
+  </si>
+  <si>
+    <t>total poison count</t>
+  </si>
+  <si>
+    <t>total children count</t>
+  </si>
+  <si>
+    <t>dna</t>
   </si>
   <si>
     <t>gendar</t>
@@ -52,7 +52,7 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>Thread-85</t>
+    <t>85</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTGCCCTAA</t>
@@ -61,7 +61,7 @@
     <t>male</t>
   </si>
   <si>
-    <t>Thread-88</t>
+    <t>88</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGTAAGGCA</t>
@@ -70,2026 +70,2026 @@
     <t>female</t>
   </si>
   <si>
-    <t>Thread-36</t>
+    <t>36</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGTGTTGT</t>
   </si>
   <si>
-    <t>Thread-57</t>
+    <t>57</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGGGGCTGG</t>
   </si>
   <si>
-    <t>Thread-66</t>
+    <t>66</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCAAGCTTT</t>
   </si>
   <si>
-    <t>Thread-58</t>
+    <t>58</t>
   </si>
   <si>
     <t xml:space="preserve"> TGATTTTCGC</t>
   </si>
   <si>
-    <t>Thread-56</t>
+    <t>56</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGCTTCACC</t>
   </si>
   <si>
-    <t>Thread-67</t>
+    <t>67</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGACAAGT</t>
   </si>
   <si>
-    <t>Thread-55</t>
+    <t>55</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGCATGTAA</t>
   </si>
   <si>
-    <t>Thread-53</t>
+    <t>53</t>
   </si>
   <si>
     <t xml:space="preserve"> AGATCATTGT</t>
   </si>
   <si>
-    <t>Thread-25</t>
+    <t>25</t>
   </si>
   <si>
     <t xml:space="preserve"> GACGTACCGT</t>
   </si>
   <si>
-    <t>Thread-20</t>
+    <t>20</t>
   </si>
   <si>
     <t xml:space="preserve"> ATAACGTACA</t>
   </si>
   <si>
-    <t>Thread-64</t>
+    <t>64</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTAGTAACT</t>
   </si>
   <si>
-    <t>Thread-46</t>
+    <t>46</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTTAGAAGC</t>
   </si>
   <si>
-    <t>Thread-24</t>
+    <t>24</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTATGACGT</t>
   </si>
   <si>
-    <t>Thread-72</t>
+    <t>72</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGCAATGA</t>
   </si>
   <si>
-    <t>Thread-45</t>
+    <t>45</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTAGGGGCA</t>
   </si>
   <si>
-    <t>Thread-47</t>
+    <t>47</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTTTATCG</t>
   </si>
   <si>
-    <t>Thread-23</t>
+    <t>23</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGAGATAA</t>
   </si>
   <si>
-    <t>Thread-40</t>
+    <t>40</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGACTACGC</t>
   </si>
   <si>
-    <t>Thread-61</t>
+    <t>61</t>
   </si>
   <si>
     <t xml:space="preserve"> TAACCCCTAG</t>
   </si>
   <si>
-    <t>Thread-68</t>
+    <t>68</t>
   </si>
   <si>
     <t xml:space="preserve"> CACAGTCGAG</t>
   </si>
   <si>
-    <t>Thread-14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGCTCCCAT</t>
   </si>
   <si>
-    <t>Thread-6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTACCGTA</t>
   </si>
   <si>
-    <t>Thread-65</t>
+    <t>65</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTAACCCCT</t>
   </si>
   <si>
-    <t>Thread-73</t>
+    <t>73</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAACTAATT</t>
   </si>
   <si>
-    <t>Thread-79</t>
+    <t>79</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGTCATAAG</t>
   </si>
   <si>
-    <t>Thread-15</t>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTCAAAAC</t>
   </si>
   <si>
-    <t>Thread-94</t>
+    <t>94</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGTCCCTTT</t>
   </si>
   <si>
-    <t>Thread-86</t>
+    <t>86</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGCCACTAT</t>
   </si>
   <si>
-    <t>Thread-98</t>
+    <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTAGAAAA</t>
   </si>
   <si>
-    <t>Thread-99</t>
+    <t>99</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGACAAGC</t>
   </si>
   <si>
-    <t>Thread-100</t>
+    <t>100</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAAGTGGAC</t>
   </si>
   <si>
-    <t>Thread-103</t>
+    <t>103</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTGGACTAA</t>
   </si>
   <si>
-    <t>Thread-87</t>
+    <t>87</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGGCCCTTT</t>
   </si>
   <si>
-    <t>Thread-90</t>
+    <t>90</t>
   </si>
   <si>
     <t xml:space="preserve"> AATCAATAGC</t>
   </si>
   <si>
-    <t>Thread-44</t>
+    <t>44</t>
   </si>
   <si>
     <t xml:space="preserve"> GATCACCGGA</t>
   </si>
   <si>
-    <t>Thread-30</t>
+    <t>30</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGCAGCGAA</t>
   </si>
   <si>
-    <t>Thread-74</t>
+    <t>74</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGTTTTCTT</t>
   </si>
   <si>
-    <t>Thread-49</t>
+    <t>49</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTAATTGCG</t>
   </si>
   <si>
-    <t>Thread-37</t>
+    <t>37</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGAGATTGT</t>
   </si>
   <si>
-    <t>Thread-43</t>
+    <t>43</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCAGTTACG</t>
   </si>
   <si>
-    <t>Thread-39</t>
+    <t>39</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTCAATTTA</t>
   </si>
   <si>
-    <t>Thread-48</t>
+    <t>48</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTGTTTTGG</t>
   </si>
   <si>
-    <t>Thread-9</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCCTACGT</t>
   </si>
   <si>
-    <t>Thread-107</t>
+    <t>107</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTATGACGT</t>
   </si>
   <si>
-    <t>Thread-110</t>
+    <t>110</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCAATTCC</t>
   </si>
   <si>
-    <t>Thread-29</t>
+    <t>29</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTACCCGAA</t>
   </si>
   <si>
-    <t>Thread-112</t>
+    <t>112</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTTGGCCCA</t>
   </si>
   <si>
-    <t>Thread-71</t>
+    <t>71</t>
   </si>
   <si>
     <t xml:space="preserve"> CACCGGGCGT</t>
   </si>
   <si>
-    <t>Thread-32</t>
+    <t>32</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTGGACTAA</t>
   </si>
   <si>
-    <t>Thread-41</t>
+    <t>41</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGTAAGGCA</t>
   </si>
   <si>
-    <t>Thread-91</t>
-  </si>
-  <si>
-    <t>Thread-115</t>
+    <t>91</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
   <si>
     <t xml:space="preserve"> AATCCACTAT</t>
   </si>
   <si>
-    <t>Thread-116</t>
+    <t>116</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTGCATTCG</t>
   </si>
   <si>
-    <t>Thread-118</t>
+    <t>118</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTCAATATC</t>
   </si>
   <si>
-    <t>Thread-93</t>
+    <t>93</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTTCAGGG</t>
   </si>
   <si>
-    <t>Thread-121</t>
+    <t>121</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTACAGAAA</t>
   </si>
   <si>
-    <t>Thread-119</t>
+    <t>119</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGTTCAAG</t>
   </si>
   <si>
-    <t>Thread-122</t>
+    <t>122</t>
   </si>
   <si>
     <t xml:space="preserve"> CATCAATGAA</t>
   </si>
   <si>
-    <t>Thread-54</t>
+    <t>54</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGGACCTTT</t>
   </si>
   <si>
-    <t>Thread-95</t>
+    <t>95</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTTCATAAA</t>
   </si>
   <si>
-    <t>Thread-18</t>
+    <t>18</t>
   </si>
   <si>
     <t xml:space="preserve"> CAACGTACCG</t>
   </si>
   <si>
-    <t>Thread-124</t>
+    <t>124</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCGAGCTCG</t>
   </si>
   <si>
-    <t>Thread-96</t>
+    <t>96</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGGAAGCA</t>
   </si>
   <si>
-    <t>Thread-105</t>
+    <t>105</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCCGGTGA</t>
   </si>
   <si>
-    <t>Thread-83</t>
+    <t>83</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGTCCTGAA</t>
   </si>
   <si>
-    <t>Thread-80</t>
+    <t>80</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCGATGAGC</t>
   </si>
   <si>
-    <t>Thread-126</t>
-  </si>
-  <si>
-    <t>Thread-59</t>
+    <t>126</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t xml:space="preserve"> TATCTTCAGT</t>
   </si>
   <si>
-    <t>Thread-50</t>
+    <t>50</t>
   </si>
   <si>
     <t xml:space="preserve"> TATTTATCGT</t>
   </si>
   <si>
-    <t>Thread-34</t>
+    <t>34</t>
   </si>
   <si>
     <t xml:space="preserve"> GATTCCGAGC</t>
   </si>
   <si>
-    <t>Thread-4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTGTACATG</t>
   </si>
   <si>
-    <t>Thread-129</t>
+    <t>129</t>
   </si>
   <si>
     <t xml:space="preserve"> CACCGGGCGG</t>
   </si>
   <si>
-    <t>Thread-130</t>
-  </si>
-  <si>
-    <t>Thread-101</t>
+    <t>130</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGGCCCCCA</t>
   </si>
   <si>
-    <t>Thread-132</t>
+    <t>132</t>
   </si>
   <si>
     <t xml:space="preserve"> CGATCAGAAA</t>
   </si>
   <si>
-    <t>Thread-108</t>
+    <t>108</t>
   </si>
   <si>
     <t xml:space="preserve"> AGAGACAAGT</t>
   </si>
   <si>
-    <t>Thread-133</t>
+    <t>133</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCCTGTGA</t>
   </si>
   <si>
-    <t>Thread-97</t>
-  </si>
-  <si>
-    <t>Thread-136</t>
+    <t>97</t>
+  </si>
+  <si>
+    <t>136</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTGGCCCCA</t>
   </si>
   <si>
-    <t>Thread-135</t>
+    <t>135</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCGAAGTCG</t>
   </si>
   <si>
-    <t>Thread-51</t>
+    <t>51</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTTGCCCCA</t>
   </si>
   <si>
-    <t>Thread-52</t>
+    <t>52</t>
   </si>
   <si>
     <t xml:space="preserve"> CATTTTGAAG</t>
   </si>
   <si>
-    <t>Thread-75</t>
+    <t>75</t>
   </si>
   <si>
     <t xml:space="preserve"> TCATCGGGAC</t>
   </si>
   <si>
-    <t>Thread-82</t>
+    <t>82</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGTTCAGG</t>
   </si>
   <si>
-    <t>Thread-63</t>
+    <t>63</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTGTCCTT</t>
   </si>
   <si>
-    <t>Thread-137</t>
+    <t>137</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTTCTACAA</t>
   </si>
   <si>
-    <t>Thread-114</t>
+    <t>114</t>
   </si>
   <si>
     <t xml:space="preserve"> CAACGTTCCG</t>
   </si>
   <si>
-    <t>Thread-102</t>
+    <t>102</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGATGAGC</t>
   </si>
   <si>
-    <t>Thread-117</t>
+    <t>117</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGGCAGAA</t>
   </si>
   <si>
-    <t>Thread-139</t>
+    <t>139</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATCGGGAC</t>
   </si>
   <si>
-    <t>Thread-42</t>
+    <t>42</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGACTT</t>
   </si>
   <si>
-    <t>Thread-141</t>
+    <t>141</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGCGACTT</t>
   </si>
   <si>
-    <t>Thread-70</t>
+    <t>70</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGGCATTCG</t>
   </si>
   <si>
-    <t>Thread-143</t>
+    <t>143</t>
   </si>
   <si>
     <t xml:space="preserve"> TACCACTGAA</t>
   </si>
   <si>
-    <t>Thread-144</t>
+    <t>144</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTAATAGG</t>
   </si>
   <si>
-    <t>Thread-147</t>
+    <t>147</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCGCAGGAA</t>
   </si>
   <si>
-    <t>Thread-92</t>
+    <t>92</t>
   </si>
   <si>
     <t xml:space="preserve"> CGATCCTGAA</t>
   </si>
   <si>
-    <t>Thread-26</t>
+    <t>26</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGCAGCA</t>
   </si>
   <si>
-    <t>Thread-28</t>
+    <t>28</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTCCCGATA</t>
   </si>
   <si>
-    <t>Thread-27</t>
+    <t>27</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTTATCCAC</t>
   </si>
   <si>
-    <t>Thread-38</t>
+    <t>38</t>
   </si>
   <si>
     <t xml:space="preserve"> TACAAACCTT</t>
   </si>
   <si>
-    <t>Thread-62</t>
+    <t>62</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTAAGTCGG</t>
   </si>
   <si>
-    <t>Thread-81</t>
+    <t>81</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCATCGATA</t>
   </si>
   <si>
-    <t>Thread-16</t>
+    <t>16</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGAATCACA</t>
   </si>
   <si>
-    <t>Thread-11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGAAGTTAC</t>
   </si>
   <si>
-    <t>Thread-8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCAATTTCA</t>
   </si>
   <si>
-    <t>Thread-76</t>
+    <t>76</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTGTGTGA</t>
   </si>
   <si>
-    <t>Thread-10</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve"> GAATAGCCAT</t>
   </si>
   <si>
-    <t>Thread-17</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGAGATTT</t>
   </si>
   <si>
-    <t>Thread-33</t>
+    <t>33</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGTCATCA</t>
   </si>
   <si>
-    <t>Thread-125</t>
+    <t>125</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTTGCCTCA</t>
   </si>
   <si>
-    <t>Thread-89</t>
+    <t>89</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGGACTGA</t>
   </si>
   <si>
-    <t>Thread-152</t>
+    <t>152</t>
   </si>
   <si>
     <t xml:space="preserve"> AGAGACAAAA</t>
   </si>
   <si>
-    <t>Thread-153</t>
+    <t>153</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGCACGA</t>
   </si>
   <si>
-    <t>Thread-154</t>
+    <t>154</t>
   </si>
   <si>
     <t xml:space="preserve"> ATAGGGACTT</t>
   </si>
   <si>
-    <t>Thread-155</t>
+    <t>155</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGACTGAA</t>
   </si>
   <si>
-    <t>Thread-156</t>
+    <t>156</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTTCAGGT</t>
   </si>
   <si>
-    <t>Thread-134</t>
+    <t>134</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTTACCCTT</t>
   </si>
   <si>
-    <t>Thread-19</t>
+    <t>19</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTATACGGA</t>
   </si>
   <si>
-    <t>Thread-158</t>
+    <t>158</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGAGCAGGG</t>
   </si>
   <si>
-    <t>Thread-113</t>
+    <t>113</t>
   </si>
   <si>
     <t xml:space="preserve"> CATCACTGAA</t>
   </si>
   <si>
-    <t>Thread-77</t>
+    <t>77</t>
   </si>
   <si>
     <t xml:space="preserve"> AGAAACTTTT</t>
   </si>
   <si>
-    <t>Thread-159</t>
+    <t>159</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTCTTACCG</t>
   </si>
   <si>
-    <t>Thread-160</t>
+    <t>160</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGCGGGGC</t>
   </si>
   <si>
-    <t>Thread-161</t>
+    <t>161</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGGACGCA</t>
   </si>
   <si>
-    <t>Thread-163</t>
+    <t>163</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGGCTT</t>
   </si>
   <si>
-    <t>Thread-109</t>
+    <t>109</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTCCTGAA</t>
   </si>
   <si>
-    <t>Thread-167</t>
+    <t>167</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGAAGCA</t>
   </si>
   <si>
-    <t>Thread-166</t>
+    <t>166</t>
   </si>
   <si>
     <t xml:space="preserve"> CAATTTTCTT</t>
   </si>
   <si>
-    <t>Thread-60</t>
+    <t>60</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGGACTAA</t>
   </si>
   <si>
-    <t>Thread-168</t>
+    <t>168</t>
   </si>
   <si>
     <t xml:space="preserve"> CAACGTTCAT</t>
   </si>
   <si>
-    <t>Thread-12</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCGCAGTCG</t>
   </si>
   <si>
-    <t>Thread-5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGCCACTAT</t>
   </si>
   <si>
-    <t>Thread-7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATTGGCGT</t>
   </si>
   <si>
-    <t>Thread-31</t>
-  </si>
-  <si>
-    <t>Thread-123</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCGCAGTCC</t>
   </si>
   <si>
-    <t>Thread-131</t>
+    <t>131</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGACAGGG</t>
   </si>
   <si>
-    <t>Thread-111</t>
+    <t>111</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGCCATCAT</t>
   </si>
   <si>
-    <t>Thread-175</t>
+    <t>175</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCAACAGC</t>
   </si>
   <si>
-    <t>Thread-106</t>
+    <t>106</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTTACTTTT</t>
   </si>
   <si>
-    <t>Thread-177</t>
+    <t>177</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGGACCTCA</t>
   </si>
   <si>
-    <t>Thread-13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTCTTGTC</t>
   </si>
   <si>
-    <t>Thread-140</t>
+    <t>140</t>
   </si>
   <si>
     <t xml:space="preserve"> CAACGATCAT</t>
   </si>
   <si>
-    <t>Thread-180</t>
+    <t>180</t>
   </si>
   <si>
     <t xml:space="preserve"> CAACGATCCG</t>
   </si>
   <si>
-    <t>Thread-179</t>
+    <t>179</t>
   </si>
   <si>
     <t xml:space="preserve"> CGACGCTTAA</t>
   </si>
   <si>
-    <t>Thread-146</t>
+    <t>146</t>
   </si>
   <si>
     <t xml:space="preserve"> CGATCCTTAA</t>
   </si>
   <si>
-    <t>Thread-181</t>
+    <t>181</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCCGCACGT</t>
   </si>
   <si>
-    <t>Thread-127</t>
-  </si>
-  <si>
-    <t>Thread-187</t>
+    <t>127</t>
+  </si>
+  <si>
+    <t>187</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGCAGTCC</t>
   </si>
   <si>
-    <t>Thread-128</t>
+    <t>128</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAACGTCGT</t>
   </si>
   <si>
-    <t>Thread-22</t>
+    <t>22</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGCCGAAT</t>
   </si>
   <si>
-    <t>Thread-138</t>
+    <t>138</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGCAGGAGC</t>
   </si>
   <si>
-    <t>Thread-189</t>
+    <t>189</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTGCATTCG</t>
   </si>
   <si>
-    <t>Thread-190</t>
-  </si>
-  <si>
-    <t>Thread-192</t>
+    <t>190</t>
+  </si>
+  <si>
+    <t>192</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTAGTTCG</t>
   </si>
   <si>
-    <t>Thread-150</t>
+    <t>150</t>
   </si>
   <si>
     <t xml:space="preserve"> CATTTATTTG</t>
   </si>
   <si>
-    <t>Thread-193</t>
+    <t>193</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGTCCTAGC</t>
   </si>
   <si>
-    <t>Thread-104</t>
+    <t>104</t>
   </si>
   <si>
     <t xml:space="preserve"> CAATTTTCCG</t>
   </si>
   <si>
-    <t>Thread-35</t>
+    <t>35</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCAATAGC</t>
   </si>
   <si>
-    <t>Thread-196</t>
+    <t>196</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTAGCACGT</t>
   </si>
   <si>
-    <t>Thread-197</t>
+    <t>197</t>
   </si>
   <si>
     <t xml:space="preserve"> CATCAATATG</t>
   </si>
   <si>
-    <t>Thread-169</t>
+    <t>169</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGCCGGT</t>
   </si>
   <si>
-    <t>Thread-21</t>
+    <t>21</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTATCTTGT</t>
   </si>
   <si>
-    <t>Thread-170</t>
+    <t>170</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCAATGAA</t>
   </si>
   <si>
-    <t>Thread-198</t>
-  </si>
-  <si>
-    <t>Thread-199</t>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTCTCACA</t>
   </si>
   <si>
-    <t>Thread-165</t>
+    <t>165</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGTGCCTCA</t>
   </si>
   <si>
-    <t>Thread-206</t>
+    <t>206</t>
   </si>
   <si>
     <t xml:space="preserve"> TACAAACCCG</t>
   </si>
   <si>
-    <t>Thread-69</t>
-  </si>
-  <si>
-    <t>Thread-120</t>
+    <t>69</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGCCGGA</t>
   </si>
   <si>
-    <t>Thread-211</t>
+    <t>211</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTGTACTA</t>
   </si>
   <si>
-    <t>Thread-210</t>
+    <t>210</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGCAGAGC</t>
   </si>
   <si>
-    <t>Thread-151</t>
-  </si>
-  <si>
-    <t>Thread-212</t>
+    <t>151</t>
+  </si>
+  <si>
+    <t>212</t>
   </si>
   <si>
     <t xml:space="preserve"> GTACACTGAA</t>
   </si>
   <si>
-    <t>Thread-145</t>
+    <t>145</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGGCCGAAT</t>
   </si>
   <si>
-    <t>Thread-172</t>
+    <t>172</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTTCGAGG</t>
   </si>
   <si>
-    <t>Thread-173</t>
+    <t>173</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGCAGTCC</t>
   </si>
   <si>
-    <t>Thread-213</t>
+    <t>213</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGAATCACC</t>
   </si>
   <si>
-    <t>Thread-78</t>
-  </si>
-  <si>
-    <t>Thread-214</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>214</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTTGCCCCT</t>
   </si>
   <si>
-    <t>Thread-215</t>
+    <t>215</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTATGACGA</t>
   </si>
   <si>
-    <t>Thread-217</t>
+    <t>217</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCAATGAA</t>
   </si>
   <si>
-    <t>Thread-221</t>
+    <t>221</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCCCGCTA</t>
   </si>
   <si>
-    <t>Thread-148</t>
+    <t>148</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTGTACCG</t>
   </si>
   <si>
-    <t>Thread-183</t>
-  </si>
-  <si>
-    <t>Thread-222</t>
-  </si>
-  <si>
-    <t>Thread-185</t>
+    <t>183</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>185</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTTGTGGG</t>
   </si>
   <si>
-    <t>Thread-186</t>
+    <t>186</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGGAGACTT</t>
   </si>
   <si>
-    <t>Thread-157</t>
+    <t>157</t>
   </si>
   <si>
     <t xml:space="preserve"> CATCAATTTG</t>
   </si>
   <si>
-    <t>Thread-191</t>
+    <t>191</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCCCGATA</t>
   </si>
   <si>
-    <t>Thread-224</t>
+    <t>224</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGTTACGGA</t>
   </si>
   <si>
-    <t>Thread-171</t>
+    <t>171</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTTGCCCCA</t>
   </si>
   <si>
-    <t>Thread-182</t>
+    <t>182</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTCATTAA</t>
   </si>
   <si>
-    <t>Thread-194</t>
-  </si>
-  <si>
-    <t>Thread-228</t>
+    <t>194</t>
+  </si>
+  <si>
+    <t>228</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCGCATAGC</t>
   </si>
   <si>
-    <t>Thread-176</t>
+    <t>176</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTCCTGAA</t>
   </si>
   <si>
-    <t>Thread-229</t>
+    <t>229</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTTCTTGTC</t>
   </si>
   <si>
-    <t>Thread-230</t>
+    <t>230</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTTACTGAT</t>
   </si>
   <si>
-    <t>Thread-231</t>
+    <t>231</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTACATTAT</t>
   </si>
   <si>
-    <t>Thread-207</t>
+    <t>207</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTCTTGAA</t>
   </si>
   <si>
-    <t>Thread-188</t>
+    <t>188</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCTTCAGC</t>
   </si>
   <si>
-    <t>Thread-236</t>
+    <t>236</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAGTTCAGC</t>
   </si>
   <si>
-    <t>Thread-162</t>
+    <t>162</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAGTTCAGT</t>
   </si>
   <si>
-    <t>Thread-201</t>
+    <t>201</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTTGTTAC</t>
   </si>
   <si>
-    <t>Thread-202</t>
+    <t>202</t>
   </si>
   <si>
     <t xml:space="preserve"> TACAAATAGC</t>
   </si>
   <si>
-    <t>Thread-238</t>
-  </si>
-  <si>
-    <t>Thread-239</t>
-  </si>
-  <si>
-    <t>Thread-204</t>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>204</t>
   </si>
   <si>
     <t xml:space="preserve"> TCATAGACGT</t>
   </si>
   <si>
-    <t>Thread-184</t>
+    <t>184</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTCTCGAA</t>
   </si>
   <si>
-    <t>Thread-205</t>
+    <t>205</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAAACTTTC</t>
   </si>
   <si>
-    <t>Thread-241</t>
+    <t>241</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGTTCGCCG</t>
   </si>
   <si>
-    <t>Thread-209</t>
+    <t>209</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCCCCGAGT</t>
   </si>
   <si>
-    <t>Thread-242</t>
+    <t>242</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTCGCCGGT</t>
   </si>
   <si>
-    <t>Thread-244</t>
+    <t>244</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTCATTGT</t>
   </si>
   <si>
-    <t>Thread-245</t>
+    <t>245</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGCAATTAA</t>
   </si>
   <si>
-    <t>Thread-249</t>
+    <t>249</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTTCGAGC</t>
   </si>
   <si>
-    <t>Thread-252</t>
+    <t>252</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAACGTCGT</t>
   </si>
   <si>
-    <t>Thread-253</t>
-  </si>
-  <si>
-    <t>Thread-254</t>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTTCGAAG</t>
   </si>
   <si>
-    <t>Thread-220</t>
-  </si>
-  <si>
-    <t>Thread-219</t>
+    <t>220</t>
+  </si>
+  <si>
+    <t>219</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGCCACGGG</t>
   </si>
   <si>
-    <t>Thread-223</t>
+    <t>223</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAGCTCAGT</t>
   </si>
   <si>
-    <t>Thread-256</t>
+    <t>256</t>
   </si>
   <si>
     <t xml:space="preserve"> GTACAACAGT</t>
   </si>
   <si>
-    <t>Thread-233</t>
+    <t>233</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGGCGAAT</t>
   </si>
   <si>
-    <t>Thread-258</t>
+    <t>258</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTCAGTCA</t>
   </si>
   <si>
-    <t>Thread-257</t>
+    <t>257</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTGTTCAGC</t>
   </si>
   <si>
-    <t>Thread-226</t>
-  </si>
-  <si>
-    <t>Thread-225</t>
+    <t>226</t>
+  </si>
+  <si>
+    <t>225</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGCAGTCC</t>
   </si>
   <si>
-    <t>Thread-227</t>
-  </si>
-  <si>
-    <t>Thread-261</t>
+    <t>227</t>
+  </si>
+  <si>
+    <t>261</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTTACGGG</t>
   </si>
   <si>
-    <t>Thread-262</t>
+    <t>262</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGGCTGTGA</t>
   </si>
   <si>
-    <t>Thread-263</t>
+    <t>263</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTTGCCTCA</t>
   </si>
   <si>
-    <t>Thread-264</t>
+    <t>264</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAGTTTAGT</t>
   </si>
   <si>
-    <t>Thread-237</t>
+    <t>237</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTCCTGAA</t>
   </si>
   <si>
-    <t>Thread-246</t>
+    <t>246</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTAAGACGT</t>
   </si>
   <si>
-    <t>Thread-247</t>
+    <t>247</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTTGCGCCA</t>
   </si>
   <si>
-    <t>Thread-266</t>
+    <t>266</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTGTAGGG</t>
   </si>
   <si>
-    <t>Thread-250</t>
-  </si>
-  <si>
-    <t>Thread-240</t>
-  </si>
-  <si>
-    <t>Thread-149</t>
+    <t>250</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGACCCCG</t>
   </si>
   <si>
-    <t>Thread-234</t>
+    <t>234</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCCTGTGT</t>
   </si>
   <si>
-    <t>Thread-243</t>
+    <t>243</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGATGACGT</t>
   </si>
   <si>
-    <t>Thread-269</t>
+    <t>269</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATAGCCGT</t>
   </si>
   <si>
-    <t>Thread-248</t>
+    <t>248</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCTTCAGT</t>
   </si>
   <si>
-    <t>Thread-178</t>
+    <t>178</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTCCCGAGT</t>
   </si>
   <si>
-    <t>Thread-232</t>
+    <t>232</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTCTTCAGC</t>
   </si>
   <si>
-    <t>Thread-272</t>
-  </si>
-  <si>
-    <t>Thread-251</t>
+    <t>272</t>
+  </si>
+  <si>
+    <t>251</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGATGAGCA</t>
   </si>
   <si>
-    <t>Thread-255</t>
+    <t>255</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGTTCCCCG</t>
   </si>
   <si>
-    <t>Thread-259</t>
-  </si>
-  <si>
-    <t>Thread-174</t>
+    <t>259</t>
+  </si>
+  <si>
+    <t>174</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCATCGCCG</t>
   </si>
   <si>
-    <t>Thread-277</t>
-  </si>
-  <si>
-    <t>Thread-235</t>
-  </si>
-  <si>
-    <t>Thread-200</t>
+    <t>277</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTACAGGG</t>
   </si>
   <si>
-    <t>Thread-203</t>
+    <t>203</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATAGCCAA</t>
   </si>
   <si>
-    <t>Thread-280</t>
+    <t>280</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGGAACGT</t>
   </si>
   <si>
-    <t>Thread-218</t>
-  </si>
-  <si>
-    <t>Thread-260</t>
+    <t>218</t>
+  </si>
+  <si>
+    <t>260</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTCTCAAA</t>
   </si>
   <si>
-    <t>Thread-282</t>
+    <t>282</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTGCTCCTT</t>
   </si>
   <si>
-    <t>Thread-281</t>
+    <t>281</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTCGAGGC</t>
   </si>
   <si>
-    <t>Thread-142</t>
-  </si>
-  <si>
-    <t>Thread-268</t>
+    <t>142</t>
+  </si>
+  <si>
+    <t>268</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCATCGCCG</t>
   </si>
   <si>
-    <t>Thread-283</t>
+    <t>283</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGGATTCAG</t>
   </si>
   <si>
-    <t>Thread-216</t>
+    <t>216</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCAACCTT</t>
   </si>
   <si>
-    <t>Thread-286</t>
+    <t>286</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGCCCGT</t>
   </si>
   <si>
-    <t>Thread-265</t>
+    <t>265</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTCGTTAC</t>
   </si>
   <si>
-    <t>Thread-288</t>
+    <t>288</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGCAGAGT</t>
   </si>
   <si>
-    <t>Thread-290</t>
+    <t>290</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTGTAGGG</t>
   </si>
   <si>
-    <t>Thread-270</t>
+    <t>270</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGCCGAGT</t>
   </si>
   <si>
-    <t>Thread-291</t>
+    <t>291</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTACGCCG</t>
   </si>
   <si>
-    <t>Thread-292</t>
+    <t>292</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGTTTCCCG</t>
   </si>
   <si>
-    <t>Thread-274</t>
+    <t>274</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATAGCGCA</t>
   </si>
   <si>
-    <t>Thread-294</t>
+    <t>294</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTCAACCGG</t>
   </si>
   <si>
-    <t>Thread-295</t>
+    <t>295</t>
   </si>
   <si>
     <t xml:space="preserve"> GTGTAGCCAA</t>
   </si>
   <si>
-    <t>Thread-296</t>
+    <t>296</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTAAGAGCA</t>
   </si>
   <si>
-    <t>Thread-298</t>
-  </si>
-  <si>
-    <t>Thread-273</t>
+    <t>298</t>
+  </si>
+  <si>
+    <t>273</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTCCCGAGT</t>
   </si>
   <si>
-    <t>Thread-279</t>
+    <t>279</t>
   </si>
   <si>
     <t xml:space="preserve"> TCATAGACCA</t>
   </si>
   <si>
-    <t>Thread-300</t>
+    <t>300</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCAACCTT</t>
   </si>
   <si>
-    <t>Thread-276</t>
+    <t>276</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTCTTGAC</t>
   </si>
   <si>
-    <t>Thread-302</t>
+    <t>302</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGTTTGCCA</t>
   </si>
   <si>
-    <t>Thread-301</t>
+    <t>301</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAATGACGT</t>
   </si>
   <si>
-    <t>Thread-304</t>
-  </si>
-  <si>
-    <t>Thread-164</t>
-  </si>
-  <si>
-    <t>Thread-275</t>
+    <t>304</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>275</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTAACGAA</t>
   </si>
   <si>
-    <t>Thread-287</t>
+    <t>287</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGACTCCG</t>
   </si>
   <si>
-    <t>Thread-308</t>
+    <t>308</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCCCCTAA</t>
   </si>
   <si>
-    <t>Thread-309</t>
+    <t>309</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTATGAGGT</t>
   </si>
   <si>
-    <t>Thread-278</t>
-  </si>
-  <si>
-    <t>Thread-267</t>
+    <t>278</t>
+  </si>
+  <si>
+    <t>267</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTCTCGAA</t>
   </si>
   <si>
-    <t>Thread-310</t>
+    <t>310</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTCGTGAC</t>
   </si>
   <si>
-    <t>Thread-311</t>
+    <t>311</t>
   </si>
   <si>
     <t xml:space="preserve"> CAATTTCCCG</t>
   </si>
   <si>
-    <t>Thread-313</t>
+    <t>313</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTCGTTAA</t>
   </si>
   <si>
-    <t>Thread-271</t>
+    <t>271</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTAGGTGT</t>
   </si>
   <si>
-    <t>Thread-316</t>
+    <t>316</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCTGACGT</t>
   </si>
   <si>
-    <t>Thread-318</t>
+    <t>318</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTGCCGAGT</t>
   </si>
   <si>
-    <t>Thread-320</t>
+    <t>320</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTCGTTAT</t>
   </si>
   <si>
-    <t>Thread-323</t>
+    <t>323</t>
   </si>
   <si>
     <t xml:space="preserve"> TCATAGGTGT</t>
   </si>
   <si>
-    <t>Thread-324</t>
+    <t>324</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTCTCGAA</t>
   </si>
   <si>
-    <t>Thread-325</t>
+    <t>325</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTCTCAGT</t>
   </si>
   <si>
-    <t>Thread-293</t>
-  </si>
-  <si>
-    <t>Thread-326</t>
-  </si>
-  <si>
-    <t>Thread-289</t>
+    <t>293</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>289</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCCTTCGAA</t>
   </si>
   <si>
-    <t>Thread-327</t>
+    <t>327</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAAAGCGGT</t>
   </si>
   <si>
-    <t>Thread-328</t>
+    <t>328</t>
   </si>
   <si>
     <t xml:space="preserve"> CAATTTTCAG</t>
   </si>
   <si>
-    <t>Thread-284</t>
-  </si>
-  <si>
-    <t>Thread-330</t>
+    <t>284</t>
+  </si>
+  <si>
+    <t>330</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCCTACGT</t>
   </si>
   <si>
-    <t>Thread-285</t>
+    <t>285</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTCCTGAT</t>
   </si>
   <si>
-    <t>Thread-195</t>
-  </si>
-  <si>
-    <t>Thread-307</t>
+    <t>195</t>
+  </si>
+  <si>
+    <t>307</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTCAACCTT</t>
   </si>
   <si>
-    <t>Thread-332</t>
+    <t>332</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCGCGACGT</t>
   </si>
   <si>
-    <t>Thread-208</t>
-  </si>
-  <si>
-    <t>Thread-333</t>
+    <t>208</t>
+  </si>
+  <si>
+    <t>333</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCGCGACGT</t>
   </si>
   <si>
-    <t>Thread-334</t>
+    <t>334</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCGCCGGCA</t>
   </si>
   <si>
-    <t>Thread-312</t>
+    <t>312</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAAAGACGT</t>
   </si>
   <si>
-    <t>Thread-317</t>
+    <t>317</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCTTCGAA</t>
   </si>
   <si>
-    <t>Thread-335</t>
+    <t>335</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTAGGCGT</t>
   </si>
   <si>
-    <t>Thread-306</t>
-  </si>
-  <si>
-    <t>Thread-321</t>
+    <t>306</t>
+  </si>
+  <si>
+    <t>321</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGTTTTCAG</t>
   </si>
   <si>
-    <t>Thread-314</t>
-  </si>
-  <si>
-    <t>Thread-322</t>
+    <t>314</t>
+  </si>
+  <si>
+    <t>322</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTATCGCGG</t>
   </si>
   <si>
-    <t>Thread-337</t>
-  </si>
-  <si>
-    <t>Thread-338</t>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTTGCGCCG</t>
   </si>
   <si>
-    <t>Thread-339</t>
+    <t>339</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTCTCAGT</t>
   </si>
   <si>
-    <t>Thread-340</t>
-  </si>
-  <si>
-    <t>Thread-319</t>
-  </si>
-  <si>
-    <t>Thread-303</t>
+    <t>340</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>303</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTCTCAGT</t>
   </si>
   <si>
-    <t>Thread-299</t>
-  </si>
-  <si>
-    <t>Thread-342</t>
+    <t>299</t>
+  </si>
+  <si>
+    <t>342</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAAAGGTGT</t>
   </si>
   <si>
-    <t>Thread-343</t>
+    <t>343</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAACTACGT</t>
   </si>
   <si>
-    <t>Thread-344</t>
+    <t>344</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACCTACGT</t>
   </si>
   <si>
-    <t>Thread-347</t>
+    <t>347</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTATCGCTT</t>
   </si>
   <si>
-    <t>Thread-348</t>
-  </si>
-  <si>
-    <t>Thread-350</t>
-  </si>
-  <si>
-    <t>Thread-351</t>
+    <t>348</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAAAGACGT</t>
   </si>
   <si>
-    <t>Thread-352</t>
+    <t>352</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTCACGAA</t>
   </si>
   <si>
-    <t>Thread-353</t>
-  </si>
-  <si>
-    <t>Thread-329</t>
+    <t>353</t>
+  </si>
+  <si>
+    <t>329</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTCTCCCA</t>
   </si>
   <si>
-    <t>Thread-354</t>
-  </si>
-  <si>
-    <t>Thread-341</t>
-  </si>
-  <si>
-    <t>Thread-297</t>
-  </si>
-  <si>
-    <t>Thread-357</t>
+    <t>354</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>357</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTAGACGT</t>
   </si>
   <si>
-    <t>Thread-359</t>
+    <t>359</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTCTCAGT</t>
   </si>
   <si>
-    <t>Thread-360</t>
-  </si>
-  <si>
-    <t>Thread-346</t>
+    <t>360</t>
+  </si>
+  <si>
+    <t>346</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTCGTTAG</t>
   </si>
   <si>
-    <t>Thread-336</t>
-  </si>
-  <si>
-    <t>Thread-345</t>
-  </si>
-  <si>
-    <t>Thread-349</t>
+    <t>336</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>349</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTCCTCGT</t>
   </si>
   <si>
-    <t>Thread-362</t>
+    <t>362</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCCTACGT</t>
   </si>
   <si>
-    <t>Thread-331</t>
-  </si>
-  <si>
-    <t>Thread-356</t>
+    <t>331</t>
+  </si>
+  <si>
+    <t>356</t>
   </si>
   <si>
     <t xml:space="preserve"> CAATTTGCCG</t>
   </si>
   <si>
-    <t>Thread-363</t>
+    <t>363</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTCGTTGT</t>
   </si>
   <si>
-    <t>Thread-305</t>
-  </si>
-  <si>
-    <t>Thread-358</t>
+    <t>305</t>
+  </si>
+  <si>
+    <t>358</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTCGTTAG</t>
   </si>
   <si>
-    <t>Thread-364</t>
+    <t>364</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTCTCTAG</t>
   </si>
   <si>
-    <t>Thread-367</t>
+    <t>367</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTCCTACGT</t>
   </si>
   <si>
-    <t>Thread-361</t>
+    <t>361</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTCTCTAA</t>
   </si>
   <si>
-    <t>Thread-315</t>
-  </si>
-  <si>
-    <t>Thread-366</t>
-  </si>
-  <si>
-    <t>Thread-365</t>
-  </si>
-  <si>
-    <t>Thread-371</t>
+    <t>315</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>371</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTCTTTAA</t>
   </si>
   <si>
-    <t>Thread-355</t>
+    <t>355</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTTTCCCCG</t>
   </si>
   <si>
-    <t>Thread-372</t>
-  </si>
-  <si>
-    <t>Thread-368</t>
-  </si>
-  <si>
-    <t>Thread-370</t>
-  </si>
-  <si>
-    <t>Thread-369</t>
-  </si>
-  <si>
-    <t>Thread-374</t>
+    <t>372</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>374</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTCCTCGT</t>
   </si>
   <si>
-    <t>Thread-373</t>
+    <t>373</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTCGTCGT</t>
